--- a/data/trans_dic/P44A$otras-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P44A$otras-Provincia-trans_dic.xlsx
@@ -678,21 +678,21 @@
         <v>0</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.3300948656629353</v>
+        <v>0.3452940804415723</v>
       </c>
       <c r="E5" s="5" t="inlineStr"/>
       <c r="F5" s="5" t="n">
-        <v>0</v>
+        <v>0.07559252028874158</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.3464373364545257</v>
+        <v>0.3075470173517638</v>
       </c>
       <c r="H5" s="5" t="inlineStr"/>
       <c r="I5" s="5" t="n">
-        <v>0.05351086718967858</v>
+        <v>0.05507433459119218</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.4250436912011877</v>
+        <v>0.4029764045309661</v>
       </c>
       <c r="K5" s="5" t="inlineStr"/>
     </row>
@@ -704,24 +704,24 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.6003345009418478</v>
+        <v>0.6282481557930097</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.7648733975087696</v>
+        <v>0.7700653945820174</v>
       </c>
       <c r="E6" s="5" t="inlineStr"/>
       <c r="F6" s="5" t="n">
-        <v>0.6130680257315947</v>
+        <v>0.5880292876661437</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.8649379773446624</v>
+        <v>0.8624428209466949</v>
       </c>
       <c r="H6" s="5" t="inlineStr"/>
       <c r="I6" s="5" t="n">
-        <v>0.4627843871519305</v>
+        <v>0.4676061476789086</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.7404800837163934</v>
+        <v>0.7350208658001524</v>
       </c>
       <c r="K6" s="5" t="inlineStr"/>
     </row>
@@ -752,7 +752,7 @@
         <v>0.2049048162862121</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>0.01714215448096177</v>
+        <v>0.01714215448096176</v>
       </c>
       <c r="I7" s="5" t="n">
         <v>0.3433832211674257</v>
@@ -772,14 +772,14 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.0871078898200069</v>
+        <v>0.09350779837896524</v>
       </c>
       <c r="D8" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E8" s="5" t="inlineStr"/>
       <c r="F8" s="5" t="n">
-        <v>0.2659946843502148</v>
+        <v>0.2220702129868811</v>
       </c>
       <c r="G8" s="5" t="n">
         <v>0</v>
@@ -788,10 +788,10 @@
         <v>0</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.1986905869236604</v>
+        <v>0.1940863582494535</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.07208296894293925</v>
+        <v>0.07457595251151122</v>
       </c>
       <c r="K8" s="5" t="n">
         <v>0</v>
@@ -805,29 +805,29 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.5175543759140718</v>
+        <v>0.5286378910265518</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.6787712349605624</v>
+        <v>0.740145094831567</v>
       </c>
       <c r="E9" s="5" t="inlineStr"/>
       <c r="F9" s="5" t="n">
-        <v>0.6720154898598576</v>
+        <v>0.6639427119127949</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.8082569381619834</v>
+        <v>0.7562139223566173</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.08559512883805637</v>
+        <v>0.08523109089417122</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.5167400311132603</v>
+        <v>0.5237711339994788</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.5473239262228944</v>
+        <v>0.5939528509636183</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.0348088407246559</v>
+        <v>0.03418316370692277</v>
       </c>
     </row>
     <row r="10">
@@ -883,23 +883,23 @@
         <v>0</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.0102809336744543</v>
+        <v>0.01002979963520173</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1697055345317941</v>
+        <v>0.08784788969470275</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.08344778126647476</v>
+        <v>0.1002970598185661</v>
       </c>
       <c r="H11" s="5" t="inlineStr"/>
       <c r="I11" s="5" t="n">
-        <v>0.09870844924681309</v>
+        <v>0.1030322536149473</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.07911268901037784</v>
+        <v>0.06333694847112174</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.005083821846326614</v>
+        <v>0.005054692091171417</v>
       </c>
     </row>
     <row r="12">
@@ -910,29 +910,29 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.5042722787108285</v>
+        <v>0.5170518851427375</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.3096340203574545</v>
+        <v>0.3150489157227953</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.08884912930424574</v>
+        <v>0.08876361774968425</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.6948993919589895</v>
+        <v>0.7143721634184342</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.5458658096380735</v>
+        <v>0.5647516305988997</v>
       </c>
       <c r="H12" s="5" t="inlineStr"/>
       <c r="I12" s="5" t="n">
-        <v>0.5210169088694462</v>
+        <v>0.5329966357234849</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.3658887509109381</v>
+        <v>0.3249247056213754</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.04509080320532039</v>
+        <v>0.04414283041196779</v>
       </c>
     </row>
     <row r="13">
@@ -985,21 +985,21 @@
         <v>0</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.03840421778880544</v>
+        <v>0.03776698076688945</v>
       </c>
       <c r="E14" s="5" t="inlineStr"/>
       <c r="F14" s="5" t="n">
-        <v>0.07247435021697299</v>
+        <v>0.07136724828615455</v>
       </c>
       <c r="G14" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H14" s="5" t="inlineStr"/>
       <c r="I14" s="5" t="n">
-        <v>0.06217967880929345</v>
+        <v>0.05960710443624326</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.05119104123558962</v>
+        <v>0.05059691269120535</v>
       </c>
       <c r="K14" s="5" t="inlineStr"/>
     </row>
@@ -1011,24 +1011,24 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.4527770897241069</v>
+        <v>0.4489913619679365</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.3283784439620963</v>
+        <v>0.3134742138919255</v>
       </c>
       <c r="E15" s="5" t="inlineStr"/>
       <c r="F15" s="5" t="n">
-        <v>0.5938484018540496</v>
+        <v>0.5764509311040475</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.3023634004723365</v>
+        <v>0.3261680640532214</v>
       </c>
       <c r="H15" s="5" t="inlineStr"/>
       <c r="I15" s="5" t="n">
-        <v>0.4128936191699676</v>
+        <v>0.408291717501431</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.2419425822560808</v>
+        <v>0.2572033455282645</v>
       </c>
       <c r="K15" s="5" t="inlineStr"/>
     </row>
@@ -1108,21 +1108,21 @@
       <c r="C18" s="5" t="inlineStr"/>
       <c r="D18" s="5" t="inlineStr"/>
       <c r="E18" s="5" t="n">
-        <v>0.1978465264562515</v>
+        <v>0.1938786434480452</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.6673531277408052</v>
+        <v>0.828743268694731</v>
       </c>
       <c r="G18" s="5" t="inlineStr"/>
       <c r="H18" s="5" t="n">
-        <v>0.1439120903531617</v>
+        <v>0.1469751904547687</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.4866865161048582</v>
+        <v>0.487761040289538</v>
       </c>
       <c r="J18" s="5" t="inlineStr"/>
       <c r="K18" s="5" t="n">
-        <v>0.1015946511888872</v>
+        <v>0.1158411527406168</v>
       </c>
     </row>
     <row r="19">
@@ -1152,7 +1152,7 @@
         <v>0.3570048933860093</v>
       </c>
       <c r="H19" s="5" t="n">
-        <v>0.01208706176802006</v>
+        <v>0.01208706176802007</v>
       </c>
       <c r="I19" s="5" t="n">
         <v>0.1974929067206269</v>
@@ -1161,7 +1161,7 @@
         <v>0.3593002029479713</v>
       </c>
       <c r="K19" s="5" t="n">
-        <v>0.005446092102700132</v>
+        <v>0.005446092102700134</v>
       </c>
     </row>
     <row r="20">
@@ -1175,23 +1175,23 @@
         <v>0</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.1002364420428434</v>
+        <v>0.0985605931314549</v>
       </c>
       <c r="E20" s="5" t="inlineStr"/>
       <c r="F20" s="5" t="n">
         <v>0</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.111506577294416</v>
+        <v>0.1127130602892338</v>
       </c>
       <c r="H20" s="5" t="n">
         <v>0</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.0623234488491773</v>
+        <v>0.06271064043310791</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.1676608488664346</v>
+        <v>0.1647830271093041</v>
       </c>
       <c r="K20" s="5" t="n">
         <v>0</v>
@@ -1205,29 +1205,29 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.5026788401548391</v>
+        <v>0.5548537612050478</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.724851681103543</v>
+        <v>0.7010958651542031</v>
       </c>
       <c r="E21" s="5" t="inlineStr"/>
       <c r="F21" s="5" t="n">
-        <v>0.826573165809724</v>
+        <v>0.8248828590929735</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.7289627167328249</v>
+        <v>0.7488775872486304</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.06169373561085854</v>
+        <v>0.04987155049715743</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.461504883187599</v>
+        <v>0.4650552143923665</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.6371125432147714</v>
+        <v>0.6493915600720158</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.03099118517500028</v>
+        <v>0.02763785538445663</v>
       </c>
     </row>
     <row r="22">
@@ -1248,7 +1248,7 @@
         <v>0.1021662052214122</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.009248106790796726</v>
+        <v>0.009248106790796722</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>0.3479839290684184</v>
@@ -1266,7 +1266,7 @@
         <v>0.1069429906540782</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>0.006959807183322027</v>
+        <v>0.006959807183322026</v>
       </c>
     </row>
     <row r="23">
@@ -1280,25 +1280,25 @@
         <v>0</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.02847025009671663</v>
+        <v>0.02845475035948635</v>
       </c>
       <c r="E23" s="5" t="n">
         <v>0</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.1575108138190829</v>
+        <v>0.151584279621782</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.03287123566160612</v>
+        <v>0.03184968702910116</v>
       </c>
       <c r="H23" s="5" t="n">
         <v>0</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.1095421725630927</v>
+        <v>0.09022570909602637</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.04423202828013495</v>
+        <v>0.04560468230228641</v>
       </c>
       <c r="K23" s="5" t="n">
         <v>0</v>
@@ -1312,31 +1312,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.335708759263807</v>
+        <v>0.3533738380153864</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.2391627864425424</v>
+        <v>0.2402457643824604</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.04611573169059287</v>
+        <v>0.04654118234126515</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.6203228941747588</v>
+        <v>0.6201806883359278</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.2811262286737998</v>
+        <v>0.2816236304169979</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.02949974008191413</v>
+        <v>0.02459401573374944</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.4268800916132261</v>
+        <v>0.3949457201940187</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.2046843013849416</v>
+        <v>0.2004328471658411</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.02540215817102012</v>
+        <v>0.02467336876503295</v>
       </c>
     </row>
     <row r="25">
@@ -1386,24 +1386,24 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.08790682618284071</v>
+        <v>0.108070815997422</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.1076981684213344</v>
+        <v>0.1083311601321675</v>
       </c>
       <c r="E26" s="5" t="inlineStr"/>
       <c r="F26" s="5" t="n">
-        <v>0.1405482033406724</v>
+        <v>0.1401163692673064</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.1513477650805262</v>
+        <v>0.1549970522456709</v>
       </c>
       <c r="H26" s="5" t="inlineStr"/>
       <c r="I26" s="5" t="n">
-        <v>0.1470244082260256</v>
+        <v>0.1505171769231448</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.1759650495330041</v>
+        <v>0.1611860737228943</v>
       </c>
       <c r="K26" s="5" t="inlineStr"/>
     </row>
@@ -1415,24 +1415,24 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.4519446698436531</v>
+        <v>0.4705870652348437</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.4985624282935589</v>
+        <v>0.4933372380761827</v>
       </c>
       <c r="E27" s="5" t="inlineStr"/>
       <c r="F27" s="5" t="n">
-        <v>0.6428061525419615</v>
+        <v>0.6388081006080428</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.6607925036911567</v>
+        <v>0.730646415864896</v>
       </c>
       <c r="H27" s="5" t="inlineStr"/>
       <c r="I27" s="5" t="n">
-        <v>0.4347451884005892</v>
+        <v>0.4372016689195712</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.4953176010086887</v>
+        <v>0.4682841188888787</v>
       </c>
       <c r="K27" s="5" t="inlineStr"/>
     </row>
@@ -1483,31 +1483,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.09921729763617632</v>
+        <v>0.09740131407150063</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.1641662239015072</v>
+        <v>0.1624285241887999</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.002127586739985627</v>
+        <v>0.002065606693984821</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.2630144275260097</v>
+        <v>0.2562301120616553</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>0.1946421719066587</v>
+        <v>0.1865110828095554</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>0.0009378360470028811</v>
+        <v>0.001384139975969613</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>0.1967439282811159</v>
+        <v>0.1969485642965454</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>0.190838787744294</v>
+        <v>0.1879438834550776</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>0.002489087053507432</v>
+        <v>0.002468882456616387</v>
       </c>
     </row>
     <row r="30">
@@ -1518,31 +1518,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.260840426262801</v>
+        <v>0.2482006372035832</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.30483426347349</v>
+        <v>0.3089244845355781</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.01547192607764589</v>
+        <v>0.01533868323371247</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.4664131157006827</v>
+        <v>0.4417136915463675</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.3643862360407529</v>
+        <v>0.3587874858519958</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>0.01065133897816195</v>
+        <v>0.01042322719106568</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>0.3211729366833092</v>
+        <v>0.3186196956740068</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>0.2972721437866863</v>
+        <v>0.2972554138515522</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>0.01005435383558533</v>
+        <v>0.00961512964777651</v>
       </c>
     </row>
     <row r="31">
@@ -1778,21 +1778,21 @@
         <v>0</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>7715</v>
+        <v>8070</v>
       </c>
       <c r="E6" s="6" t="inlineStr"/>
       <c r="F6" s="6" t="n">
-        <v>0</v>
+        <v>837</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>5469</v>
+        <v>4855</v>
       </c>
       <c r="H6" s="6" t="inlineStr"/>
       <c r="I6" s="6" t="n">
-        <v>965</v>
+        <v>993</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>16643</v>
+        <v>15779</v>
       </c>
       <c r="K6" s="6" t="inlineStr"/>
     </row>
@@ -1804,24 +1804,24 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>4175</v>
+        <v>4369</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>17876</v>
+        <v>17997</v>
       </c>
       <c r="E7" s="6" t="inlineStr"/>
       <c r="F7" s="6" t="n">
-        <v>6787</v>
+        <v>6509</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>13654</v>
+        <v>13615</v>
       </c>
       <c r="H7" s="6" t="inlineStr"/>
       <c r="I7" s="6" t="n">
-        <v>8342</v>
+        <v>8429</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>28995</v>
+        <v>28781</v>
       </c>
       <c r="K7" s="6" t="inlineStr"/>
     </row>
@@ -1907,14 +1907,14 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>2100</v>
+        <v>2255</v>
       </c>
       <c r="D10" s="6" t="n">
         <v>0</v>
       </c>
       <c r="E10" s="6" t="inlineStr"/>
       <c r="F10" s="6" t="n">
-        <v>5430</v>
+        <v>4533</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0</v>
@@ -1923,10 +1923,10 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>8847</v>
+        <v>8642</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>1083</v>
+        <v>1120</v>
       </c>
       <c r="K10" s="6" t="n">
         <v>0</v>
@@ -1940,29 +1940,29 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>12480</v>
+        <v>12747</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>6325</v>
+        <v>6897</v>
       </c>
       <c r="E11" s="6" t="inlineStr"/>
       <c r="F11" s="6" t="n">
-        <v>13718</v>
+        <v>13553</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>4610</v>
+        <v>4313</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>3610</v>
+        <v>3595</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>23008</v>
+        <v>23321</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>8222</v>
+        <v>8923</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>3732</v>
+        <v>3665</v>
       </c>
     </row>
     <row r="12">
@@ -2053,23 +2053,23 @@
         <v>0</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>572</v>
+        <v>558</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>2259</v>
+        <v>1169</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>1665</v>
+        <v>2001</v>
       </c>
       <c r="H14" s="6" t="inlineStr"/>
       <c r="I14" s="6" t="n">
-        <v>2224</v>
+        <v>2321</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>3231</v>
+        <v>2587</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>574</v>
+        <v>570</v>
       </c>
     </row>
     <row r="15">
@@ -2080,29 +2080,29 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>4649</v>
+        <v>4767</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>6467</v>
+        <v>6580</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>4944</v>
+        <v>4939</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>9251</v>
+        <v>9510</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>10891</v>
+        <v>11268</v>
       </c>
       <c r="H15" s="6" t="inlineStr"/>
       <c r="I15" s="6" t="n">
-        <v>11739</v>
+        <v>12009</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>14943</v>
+        <v>13270</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>5088</v>
+        <v>4981</v>
       </c>
     </row>
     <row r="16">
@@ -2190,21 +2190,21 @@
         <v>0</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>999</v>
+        <v>983</v>
       </c>
       <c r="E18" s="6" t="inlineStr"/>
       <c r="F18" s="6" t="n">
-        <v>992</v>
+        <v>976</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H18" s="6" t="inlineStr"/>
       <c r="I18" s="6" t="n">
-        <v>1530</v>
+        <v>1466</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>2378</v>
+        <v>2350</v>
       </c>
       <c r="K18" s="6" t="inlineStr"/>
     </row>
@@ -2216,24 +2216,24 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>4944</v>
+        <v>4903</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>8546</v>
+        <v>8158</v>
       </c>
       <c r="E19" s="6" t="inlineStr"/>
       <c r="F19" s="6" t="n">
-        <v>8125</v>
+        <v>7887</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>6175</v>
+        <v>6661</v>
       </c>
       <c r="H19" s="6" t="inlineStr"/>
       <c r="I19" s="6" t="n">
-        <v>10158</v>
+        <v>10044</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>11237</v>
+        <v>11946</v>
       </c>
       <c r="K19" s="6" t="inlineStr"/>
     </row>
@@ -2348,21 +2348,21 @@
       <c r="C23" s="6" t="inlineStr"/>
       <c r="D23" s="6" t="inlineStr"/>
       <c r="E23" s="6" t="n">
-        <v>2675</v>
+        <v>2621</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>4382</v>
+        <v>5442</v>
       </c>
       <c r="G23" s="6" t="inlineStr"/>
       <c r="H23" s="6" t="n">
-        <v>2122</v>
+        <v>2167</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>6261</v>
+        <v>6275</v>
       </c>
       <c r="J23" s="6" t="inlineStr"/>
       <c r="K23" s="6" t="n">
-        <v>2871</v>
+        <v>3274</v>
       </c>
     </row>
     <row r="24">
@@ -2450,23 +2450,23 @@
         <v>0</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>1041</v>
+        <v>1024</v>
       </c>
       <c r="E26" s="6" t="inlineStr"/>
       <c r="F26" s="6" t="n">
         <v>0</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>960</v>
+        <v>970</v>
       </c>
       <c r="H26" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>969</v>
+        <v>975</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>3184</v>
+        <v>3129</v>
       </c>
       <c r="K26" s="6" t="n">
         <v>0</v>
@@ -2480,29 +2480,29 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>4649</v>
+        <v>5131</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>7529</v>
+        <v>7282</v>
       </c>
       <c r="E27" s="6" t="inlineStr"/>
       <c r="F27" s="6" t="n">
-        <v>5201</v>
+        <v>5190</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>6273</v>
+        <v>6444</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>1914</v>
+        <v>1547</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>7172</v>
+        <v>7227</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>12099</v>
+        <v>12333</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>2134</v>
+        <v>1903</v>
       </c>
     </row>
     <row r="28">
@@ -2590,25 +2590,25 @@
         <v>0</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="E30" s="6" t="n">
         <v>0</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>3240</v>
+        <v>3118</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>927</v>
+        <v>898</v>
       </c>
       <c r="H30" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>3974</v>
+        <v>3273</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>3031</v>
+        <v>3125</v>
       </c>
       <c r="K30" s="6" t="n">
         <v>0</v>
@@ -2622,31 +2622,31 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>5272</v>
+        <v>5550</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>9643</v>
+        <v>9686</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>5606</v>
+        <v>5657</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>12761</v>
+        <v>12758</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>7927</v>
+        <v>7941</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>3975</v>
+        <v>3314</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>15486</v>
+        <v>14327</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>14025</v>
+        <v>13733</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>6511</v>
+        <v>6324</v>
       </c>
     </row>
     <row r="32">
@@ -2731,24 +2731,24 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>2365</v>
+        <v>2908</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>2844</v>
+        <v>2861</v>
       </c>
       <c r="E34" s="6" t="inlineStr"/>
       <c r="F34" s="6" t="n">
-        <v>2115</v>
+        <v>2108</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>2039</v>
+        <v>2088</v>
       </c>
       <c r="H34" s="6" t="inlineStr"/>
       <c r="I34" s="6" t="n">
-        <v>6168</v>
+        <v>6315</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>7017</v>
+        <v>6427</v>
       </c>
       <c r="K34" s="6" t="inlineStr"/>
     </row>
@@ -2760,24 +2760,24 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>12161</v>
+        <v>12663</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>13165</v>
+        <v>13027</v>
       </c>
       <c r="E35" s="6" t="inlineStr"/>
       <c r="F35" s="6" t="n">
-        <v>9671</v>
+        <v>9611</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>8901</v>
+        <v>9842</v>
       </c>
       <c r="H35" s="6" t="inlineStr"/>
       <c r="I35" s="6" t="n">
-        <v>18239</v>
+        <v>18342</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>19751</v>
+        <v>18673</v>
       </c>
       <c r="K35" s="6" t="inlineStr"/>
     </row>
@@ -2863,31 +2863,31 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>10851</v>
+        <v>10652</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>26215</v>
+        <v>25938</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>1215</v>
+        <v>1179</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>28130</v>
+        <v>27404</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>22603</v>
+        <v>21659</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>495</v>
+        <v>731</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>42559</v>
+        <v>42604</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>52636</v>
+        <v>51837</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>2736</v>
+        <v>2714</v>
       </c>
     </row>
     <row r="39">
@@ -2898,31 +2898,31 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>28527</v>
+        <v>27145</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>48678</v>
+        <v>49331</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>8832</v>
+        <v>8756</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>49883</v>
+        <v>47242</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>42315</v>
+        <v>41665</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>5627</v>
+        <v>5506</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>69475</v>
+        <v>68923</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>81991</v>
+        <v>81987</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>11051</v>
+        <v>10568</v>
       </c>
     </row>
     <row r="40">
